--- a/kyivbot/resources/food_stores/furshet.xlsx
+++ b/kyivbot/resources/food_stores/furshet.xlsx
@@ -1,90 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\task3\data\food_stores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\food_stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C89994-F40A-4E76-801D-F1A1C34F5E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D29B85A-5AC8-4841-A4EA-3DB3FFA45880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Повітрофлотський пр-т, 66</t>
-  </si>
-  <si>
-    <t>вул. Старовокзальна, 23</t>
-  </si>
-  <si>
-    <t>вул. Басейна, 4</t>
-  </si>
-  <si>
-    <t>вул. Луначарського, 4</t>
-  </si>
-  <si>
-    <t>М «Лівобережна», Русанівська набережна, 4</t>
-  </si>
-  <si>
-    <t>Райдужний масив, вул. Райдужна, 15</t>
-  </si>
-  <si>
-    <t>М "Лівобережна", вул. Луначарського, 22</t>
-  </si>
-  <si>
-    <t>Воскресенка, вул. Кібальчича, 11а</t>
-  </si>
-  <si>
-    <t>М "Видубичі", вул. Інженерна, 1</t>
-  </si>
-  <si>
-    <t>М "Либідська", вул. Горького, 165</t>
-  </si>
-  <si>
-    <t>Борщагівка-1, вул. Героїв Космосу, 4</t>
-  </si>
-  <si>
-    <t>Куренівка, вул. Вишгородська, 21</t>
-  </si>
-  <si>
-    <t>Райдужний масив, вул. Вершигори, 1</t>
-  </si>
-  <si>
-    <t>Дарниця, вул. Вереснева, 3</t>
-  </si>
-  <si>
-    <t>М "Харківська", вул. Вербицького, 30</t>
-  </si>
-  <si>
-    <t>М "Чернігівська", вул. Братиславська, 14б</t>
-  </si>
-  <si>
-    <t>М «Лук'янівська», вул. Багговутівська, 17-21</t>
-  </si>
-  <si>
-    <t>М "Контрактова площа", вул. Ярославська, 57</t>
-  </si>
-  <si>
-    <t>М "Нивки", пр-т Перемоги, 94/1</t>
-  </si>
-  <si>
-    <t>вул. Біломорська</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Фуршет - None</t>
+  </si>
+  <si>
+    <t>Фуршет - Повітрофлотський пр-т, 66</t>
+  </si>
+  <si>
+    <t>Фуршет - вул. Старовокзальна, 23</t>
+  </si>
+  <si>
+    <t>Фуршет - вул. Басейна, 4</t>
+  </si>
+  <si>
+    <t>Фуршет - вул. Луначарського, 4</t>
+  </si>
+  <si>
+    <t>Фуршет - М «Лівобережна», Русанівська набережна, 4</t>
+  </si>
+  <si>
+    <t>Фуршет - Райдужний масив, вул. Райдужна, 15</t>
+  </si>
+  <si>
+    <t>Фуршет - М "Лівобережна", вул. Луначарського, 22</t>
+  </si>
+  <si>
+    <t>Фуршет - Воскресенка, вул. Кібальчича, 11а</t>
+  </si>
+  <si>
+    <t>Фуршет - М "Видубичі", вул. Інженерна, 1</t>
+  </si>
+  <si>
+    <t>Фуршет - М "Либідська", вул. Горького, 165</t>
+  </si>
+  <si>
+    <t>Фуршет - Борщагівка-1, вул. Героїв Космосу, 4</t>
+  </si>
+  <si>
+    <t>Фуршет - Куренівка, вул. Вишгородська, 21</t>
+  </si>
+  <si>
+    <t>Фуршет - Райдужний масив, вул. Вершигори, 1</t>
+  </si>
+  <si>
+    <t>Фуршет - Дарниця, вул. Вереснева, 3</t>
+  </si>
+  <si>
+    <t>Фуршет - М "Харківська", вул. Вербицького, 30</t>
+  </si>
+  <si>
+    <t>Фуршет - М "Чернігівська", вул. Братиславська, 14б</t>
+  </si>
+  <si>
+    <t>Фуршет - М «Лук'янівська», вул. Багговутівська, 17-21</t>
+  </si>
+  <si>
+    <t>Фуршет - М "Контрактова площа", вул. Ярославська, 57</t>
+  </si>
+  <si>
+    <t>Фуршет - М "Нивки", пр-т Перемоги, 94/1</t>
+  </si>
+  <si>
+    <t>Фуршет - вул. Біломорська</t>
   </si>
 </sst>
 </file>
@@ -122,7 +120,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,119 +401,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
 </file>